--- a/AMS_DRDB.xlsx
+++ b/AMS_DRDB.xlsx
@@ -423,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -554,13 +554,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,6 +634,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2152,7 +2166,9 @@
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="21">
+        <v>1</v>
+      </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>

--- a/AMS_DRDB.xlsx
+++ b/AMS_DRDB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="65">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -391,6 +391,10 @@
     <rPh sb="58" eb="60">
       <t>ショウニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QA_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -423,7 +427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -554,24 +558,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,8 +628,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,21 +933,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:O51"/>
+  <dimension ref="B2:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="13" width="23.875" customWidth="1"/>
-    <col min="14" max="14" width="22.25" customWidth="1"/>
+    <col min="8" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="14" width="23.875" customWidth="1"/>
+    <col min="15" max="15" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:16">
       <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
@@ -967,51 +963,54 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="2:15">
+      <c r="O2" s="4"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="2:15">
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="7"/>
+      <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="2:15">
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1019,136 +1018,141 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="2:15" ht="14.25" thickBot="1">
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="2:16" ht="14.25" thickBot="1">
       <c r="B6" s="6"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="7"/>
+      <c r="K6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="N6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="2:15" ht="14.25" thickTop="1">
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="2:16" ht="14.25" thickTop="1">
       <c r="B7" s="6"/>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="13">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>123</v>
       </c>
-      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="J7" s="13">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="I7" s="7"/>
+      <c r="K7" s="13">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>123</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="2:15">
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="2:16">
       <c r="B8" s="6"/>
-      <c r="C8" s="14">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="14">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>456</v>
       </c>
-      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="14">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="I8" s="7"/>
+      <c r="K8" s="14">
         <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>456</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" s="6"/>
-      <c r="C9" s="14">
+      <c r="C9" s="6"/>
+      <c r="D9" s="14">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>789</v>
       </c>
-      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="J9" s="14">
+      <c r="I9" s="7"/>
+      <c r="K9" s="14">
         <v>3</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>789</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1162,49 +1166,53 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="2:15">
+      <c r="O10" s="7"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="6"/>
-      <c r="H11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" s="6"/>
-      <c r="C12" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="J12" t="s">
+      <c r="I12" s="7"/>
+      <c r="K12" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="I13" s="7"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1212,117 +1220,120 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="J14" s="18" t="s">
+      <c r="I14" s="7"/>
+      <c r="K14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="2:15" ht="14.25" thickBot="1">
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="2:16" ht="14.25" thickBot="1">
       <c r="B15" s="6"/>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="K15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="2:15" ht="14.25" thickTop="1">
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="2:16" ht="14.25" thickTop="1">
       <c r="B16" s="6"/>
-      <c r="C16" s="13">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>123</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="K16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="6"/>
-      <c r="C17" s="14">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="14">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>456</v>
       </c>
-      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="18"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="J17" s="1"/>
+      <c r="K17" s="18"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18" s="6"/>
-      <c r="C18" s="14">
+      <c r="C18" s="6"/>
+      <c r="D18" s="14">
         <v>3</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>789</v>
       </c>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" s="6"/>
-      <c r="C19" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="14" t="s">
         <v>40</v>
       </c>
@@ -1341,19 +1352,20 @@
       <c r="I19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="L19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20" s="6"/>
-      <c r="C20" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="14" t="s">
         <v>40</v>
       </c>
@@ -1372,49 +1384,54 @@
       <c r="I20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="L20" s="18"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" s="6"/>
-      <c r="C21" s="14">
+      <c r="C21" s="6"/>
+      <c r="D21" s="14">
         <v>49</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>789</v>
       </c>
-      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="18"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="J21" s="1"/>
+      <c r="K21" s="18"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="6"/>
-      <c r="C22" s="14">
+      <c r="C22" s="6"/>
+      <c r="D22" s="14">
         <v>50</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>789</v>
       </c>
-      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="18"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="J22" s="1"/>
+      <c r="K22" s="18"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1422,9 +1439,10 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="I23" s="7"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1432,9 +1450,10 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="2:15">
+      <c r="I24" s="7"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1442,9 +1461,10 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="2:15">
+      <c r="I25" s="7"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1452,41 +1472,44 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="I26" s="7"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27" s="6"/>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="2:15">
+      <c r="I27" s="7"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28" s="6"/>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="I28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="N28" s="7"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="2:16">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1495,47 +1518,51 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="8"/>
-    </row>
-    <row r="30" spans="2:15" ht="14.25" thickBot="1">
+      <c r="J29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="2:16" ht="14.25" thickBot="1">
       <c r="B30" s="6"/>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="G30" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="H30" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="J30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="K30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="L30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="M30" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="N30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="2:15" ht="14.25" thickTop="1">
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="2:16" ht="14.25" thickTop="1">
       <c r="B31" s="6"/>
       <c r="C31" s="13">
         <v>1</v>
@@ -1544,294 +1571,318 @@
         <v>1</v>
       </c>
       <c r="E31" s="13">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13">
         <v>111</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="G31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="H31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="I31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="14">
-        <v>1</v>
-      </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="13" t="s">
         <v>14</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="2:15">
+      <c r="N31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32" s="6"/>
       <c r="C32" s="13">
         <v>1</v>
       </c>
       <c r="D32" s="13">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <v>2</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="H32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="I32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="14">
-        <v>1</v>
-      </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="14">
+        <v>1</v>
+      </c>
+      <c r="K32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L32" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="8"/>
-    </row>
-    <row r="33" spans="2:15">
+      <c r="N32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33" s="6"/>
       <c r="C33" s="13">
         <v>1</v>
       </c>
       <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13">
         <v>3</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="G33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="I33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="14">
-        <v>1</v>
-      </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="14">
+        <v>1</v>
+      </c>
+      <c r="K33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L33" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="2:15">
+      <c r="N33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="2:16">
       <c r="B34" s="6"/>
       <c r="C34" s="13">
         <v>1</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="F34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="I34" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="14">
-        <v>2</v>
-      </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="14">
+        <v>2</v>
+      </c>
+      <c r="K34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L34" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O34" s="8"/>
-    </row>
-    <row r="35" spans="2:15">
+      <c r="N34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35" s="6"/>
       <c r="C35" s="13">
         <v>1</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="F35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="G35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="H35" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="I35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="14">
-        <v>2</v>
-      </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="14">
+        <v>2</v>
+      </c>
+      <c r="K35" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L35" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O35" s="8"/>
-    </row>
-    <row r="36" spans="2:15">
+      <c r="N35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="2:16">
       <c r="B36" s="6"/>
       <c r="C36" s="13">
         <v>1</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="G36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="H36" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="I36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="14">
-        <v>2</v>
-      </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="14">
+        <v>2</v>
+      </c>
+      <c r="K36" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L36" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O36" s="8"/>
-    </row>
-    <row r="37" spans="2:15">
+      <c r="N36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="2:16">
       <c r="B37" s="6"/>
       <c r="C37" s="13">
         <v>1</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14">
         <v>10</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="F37" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="G37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="I37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="14">
-        <v>2</v>
-      </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="14">
+        <v>2</v>
+      </c>
+      <c r="K37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L37" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O37" s="8"/>
-    </row>
-    <row r="38" spans="2:15">
+      <c r="N37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="2:16">
       <c r="B38" s="6"/>
       <c r="C38" s="13">
         <v>2</v>
       </c>
       <c r="D38" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="13">
+        <v>1</v>
+      </c>
+      <c r="F38" s="13">
         <v>111</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="I38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="14">
-        <v>1</v>
-      </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="14">
+        <v>1</v>
+      </c>
+      <c r="K38" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K38" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L38" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M38" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="2:15">
+      <c r="N38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="2:16">
       <c r="B39" s="6"/>
       <c r="C39" s="13">
         <v>2</v>
@@ -1839,221 +1890,239 @@
       <c r="D39" s="13">
         <v>2</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13">
+        <v>2</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="G39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="H39" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="I39" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="14">
-        <v>1</v>
-      </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="14">
+        <v>1</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M39" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O39" s="8"/>
-    </row>
-    <row r="40" spans="2:15">
+      <c r="N39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="2:16">
       <c r="B40" s="6"/>
       <c r="C40" s="13">
         <v>2</v>
       </c>
       <c r="D40" s="13">
+        <v>2</v>
+      </c>
+      <c r="E40" s="13">
         <v>3</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="F40" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="G40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="H40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="I40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="14">
-        <v>1</v>
-      </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="14">
+        <v>1</v>
+      </c>
+      <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L40" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="8"/>
-    </row>
-    <row r="41" spans="2:15">
+      <c r="N40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="2:16">
       <c r="B41" s="6"/>
       <c r="C41" s="13">
         <v>2</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="13">
+        <v>2</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="F41" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="G41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="H41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="I41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="14">
-        <v>2</v>
-      </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="14">
+        <v>2</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L41" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O41" s="8"/>
-    </row>
-    <row r="42" spans="2:15">
+      <c r="N41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="2:16">
       <c r="B42" s="6"/>
       <c r="C42" s="13">
         <v>2</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13">
+        <v>2</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="F42" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="G42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="H42" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="I42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="14">
-        <v>2</v>
-      </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="14">
+        <v>2</v>
+      </c>
+      <c r="K42" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L42" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O42" s="8"/>
-    </row>
-    <row r="43" spans="2:15">
+      <c r="N42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="2:16">
       <c r="B43" s="6"/>
       <c r="C43" s="13">
         <v>2</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13">
+        <v>2</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="F43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="G43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="H43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="I43" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="14">
-        <v>2</v>
-      </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="14">
+        <v>2</v>
+      </c>
+      <c r="K43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L43" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O43" s="8"/>
-    </row>
-    <row r="44" spans="2:15">
+      <c r="N43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="2:16">
       <c r="B44" s="6"/>
       <c r="C44" s="13">
         <v>2</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
+        <v>2</v>
+      </c>
+      <c r="E44" s="14">
         <v>10</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="F44" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="G44" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="H44" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="I44" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I44" s="14">
-        <v>2</v>
-      </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="14">
+        <v>2</v>
+      </c>
+      <c r="K44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K44" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L44" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M44" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O44" s="8"/>
-    </row>
-    <row r="45" spans="2:15">
+      <c r="N44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="2:16">
       <c r="B45" s="6"/>
       <c r="C45" s="13" t="s">
         <v>40</v>
@@ -2079,8 +2148,8 @@
       <c r="J45" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="14" t="s">
-        <v>15</v>
+      <c r="K45" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>15</v>
@@ -2088,95 +2157,103 @@
       <c r="M45" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O45" s="8"/>
-    </row>
-    <row r="46" spans="2:15">
+      <c r="N45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="2:16">
       <c r="B46" s="6"/>
       <c r="C46" s="13">
         <v>50</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
+        <v>50</v>
+      </c>
+      <c r="E46" s="14">
         <v>9</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="F46" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="G46" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="H46" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="I46" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I46" s="14">
-        <v>2</v>
-      </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="14">
+        <v>2</v>
+      </c>
+      <c r="K46" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L46" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M46" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O46" s="8"/>
-    </row>
-    <row r="47" spans="2:15">
+      <c r="N46" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="2:16">
       <c r="B47" s="6"/>
       <c r="C47" s="13">
         <v>50</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
+        <v>50</v>
+      </c>
+      <c r="E47" s="14">
         <v>10</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="F47" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="G47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="H47" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="I47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="14">
-        <v>2</v>
-      </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="14">
+        <v>2</v>
+      </c>
+      <c r="K47" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="L47" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M47" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O47" s="8"/>
-    </row>
-    <row r="48" spans="2:15">
+      <c r="N47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="2:16">
       <c r="B48" s="6"/>
-      <c r="C48" s="21">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="O48" s="8"/>
-    </row>
-    <row r="49" spans="2:15">
+      <c r="I48" s="7"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="2:16">
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2184,13 +2261,14 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="I49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="O49" s="8"/>
-    </row>
-    <row r="50" spans="2:15">
+      <c r="N49" s="7"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="2:16">
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2199,10 +2277,11 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="2:15">
+      <c r="J50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="2:16">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -2216,12 +2295,13 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="11"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AMS_DRDB.xlsx
+++ b/AMS_DRDB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="59">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -37,21 +37,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録日</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -127,10 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Eメール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -280,18 +262,6 @@
   </si>
   <si>
     <t>part</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｘｘｘ＠ｙｙｙ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｙｍｄ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｙｙ-ｍｍ--ｄｄ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -935,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -949,7 +919,7 @@
   <sheetData>
     <row r="2" spans="2:16">
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -970,7 +940,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -978,7 +948,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -990,21 +960,21 @@
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -1029,29 +999,29 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7"/>
       <c r="K6" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="8"/>
@@ -1066,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2">
         <v>123</v>
@@ -1080,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N7" s="2">
         <v>123</v>
@@ -1098,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
         <v>456</v>
@@ -1112,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N8" s="1">
         <v>456</v>
@@ -1130,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1">
         <v>789</v>
@@ -1144,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N9" s="1">
         <v>789</v>
@@ -1185,7 +1155,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1193,7 +1163,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P12" s="8"/>
     </row>
@@ -1201,11 +1171,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1222,10 +1192,10 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="K14" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P14" s="8"/>
     </row>
@@ -1233,31 +1203,24 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="K15" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P15" s="8"/>
     </row>
@@ -1269,25 +1232,18 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16" s="2">
         <v>123</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="K16" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P16" s="8"/>
     </row>
@@ -1299,14 +1255,13 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1">
         <v>456</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="K17" s="18"/>
       <c r="P17" s="8"/>
     </row>
@@ -1318,16 +1273,15 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1">
         <v>789</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="K18" s="19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P18" s="8"/>
     </row>
@@ -1335,31 +1289,24 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="K19" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P19" s="8"/>
     </row>
@@ -1367,28 +1314,21 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="K20" s="20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L20" s="18"/>
       <c r="P20" s="8"/>
@@ -1401,14 +1341,13 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1">
         <v>789</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="K21" s="18"/>
       <c r="P21" s="8"/>
     </row>
@@ -1420,14 +1359,13 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G22" s="1">
         <v>789</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="K22" s="18"/>
       <c r="P22" s="8"/>
     </row>
@@ -1479,10 +1417,10 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1494,11 +1432,11 @@
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1525,40 +1463,40 @@
     <row r="30" spans="2:16" ht="14.25" thickBot="1">
       <c r="B30" s="6"/>
       <c r="C30" s="22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="L30" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P30" s="8"/>
     </row>
@@ -1577,28 +1515,28 @@
         <v>111</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J31" s="14">
         <v>1</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P31" s="8"/>
     </row>
@@ -1614,31 +1552,31 @@
         <v>2</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J32" s="14">
         <v>1</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P32" s="8"/>
     </row>
@@ -1654,31 +1592,31 @@
         <v>3</v>
       </c>
       <c r="F33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="H33" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J33" s="14">
         <v>1</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P33" s="8"/>
     </row>
@@ -1691,34 +1629,34 @@
         <v>1</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J34" s="14">
         <v>2</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P34" s="8"/>
     </row>
@@ -1731,34 +1669,34 @@
         <v>1</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J35" s="14">
         <v>2</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P35" s="8"/>
     </row>
@@ -1771,34 +1709,34 @@
         <v>1</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J36" s="14">
         <v>2</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P36" s="8"/>
     </row>
@@ -1814,31 +1752,31 @@
         <v>10</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J37" s="14">
         <v>2</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P37" s="8"/>
     </row>
@@ -1857,28 +1795,28 @@
         <v>111</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J38" s="14">
         <v>1</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P38" s="8"/>
     </row>
@@ -1894,31 +1832,31 @@
         <v>2</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J39" s="14">
         <v>1</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P39" s="8"/>
     </row>
@@ -1934,31 +1872,31 @@
         <v>3</v>
       </c>
       <c r="F40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="H40" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J40" s="14">
         <v>1</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N40" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P40" s="8"/>
     </row>
@@ -1971,34 +1909,34 @@
         <v>2</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J41" s="14">
         <v>2</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P41" s="8"/>
     </row>
@@ -2011,34 +1949,34 @@
         <v>2</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J42" s="14">
         <v>2</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P42" s="8"/>
     </row>
@@ -2051,34 +1989,34 @@
         <v>2</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J43" s="14">
         <v>2</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P43" s="8"/>
     </row>
@@ -2094,71 +2032,71 @@
         <v>10</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J44" s="14">
         <v>2</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N44" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P44" s="8"/>
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="6"/>
       <c r="C45" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P45" s="8"/>
     </row>
@@ -2174,31 +2112,31 @@
         <v>9</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J46" s="14">
         <v>2</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P46" s="8"/>
     </row>
@@ -2214,31 +2152,31 @@
         <v>10</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J47" s="14">
         <v>2</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P47" s="8"/>
     </row>
